--- a/data/election_2021.xlsx
+++ b/data/election_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/test/ggplot/voting/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/test/ggplot/elections/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91A0FA-20E6-BB4C-8759-EEBF81221B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F360E4-9675-7244-B1D1-C5B93FEC1875}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="27820" windowHeight="17040" xr2:uid="{3D2196DF-EA7D-6249-97DA-B6854A445B15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
   <si>
     <t>აჭარა</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>round</t>
+  </si>
+  <si>
+    <t>15 საათი</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F94576-8E3C-C043-B7C3-547C29EDE846}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N45" sqref="F24:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,6 +768,160 @@
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>35.4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>39.6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>30.7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>34.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>34.1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>47.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>34.6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>30.3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>31.7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/election_2021.xlsx
+++ b/data/election_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/test/ggplot/elections/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F360E4-9675-7244-B1D1-C5B93FEC1875}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A4063-C29A-4A40-BD5D-348934CF548C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="27820" windowHeight="17040" xr2:uid="{3D2196DF-EA7D-6249-97DA-B6854A445B15}"/>
+    <workbookView xWindow="980" yWindow="960" windowWidth="27820" windowHeight="17040" xr2:uid="{3D2196DF-EA7D-6249-97DA-B6854A445B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="25">
   <si>
     <t>აჭარა</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>15 საათი</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>17 საათი</t>
+  </si>
+  <si>
+    <t>20 საათი</t>
+  </si>
+  <si>
+    <t>თვითმმართველობა 2014</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>2017 წლის ადგილობრივი თვითმმართველობის ორგანოთა არჩევნები</t>
   </si>
 </sst>
 </file>
@@ -433,20 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F94576-8E3C-C043-B7C3-547C29EDE846}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N45" sqref="F24:N45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I62" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -459,8 +476,14 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,8 +496,11 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -487,8 +513,11 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -501,8 +530,11 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -515,8 +547,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -529,8 +564,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -543,8 +581,11 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -557,8 +598,11 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -571,8 +615,11 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -585,8 +632,11 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -599,8 +649,11 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -613,8 +666,11 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -627,8 +683,11 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -641,8 +700,11 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -655,8 +717,11 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -669,8 +734,11 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -683,8 +751,11 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -697,8 +768,11 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -711,8 +785,11 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -725,8 +802,11 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -739,8 +819,11 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -753,8 +836,11 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -767,8 +853,11 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -781,8 +870,11 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -795,8 +887,11 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -809,8 +904,11 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -823,8 +921,11 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -837,8 +938,11 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -851,8 +955,11 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -865,8 +972,11 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -879,8 +989,11 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -893,8 +1006,11 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -907,8 +1023,11 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -920,6 +1039,1692 @@
       </c>
       <c r="D34" t="s">
         <v>16</v>
+      </c>
+      <c r="E34">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>2014</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>25.1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>2014</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>12.8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>2014</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>2014</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>16.7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>2014</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>18.2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>2014</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>30.8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>2014</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>20.9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>2014</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>2014</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>15.7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>2014</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>14.9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>2014</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>30.3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>2014</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>2014</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>23.8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>2014</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>30.8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>2014</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>2014</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>31.6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>2014</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>2014</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>34.6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>2014</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>2014</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>25.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>2014</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>26.6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>2014</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>2014</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>47.4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>2014</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>29.3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>2014</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>36.1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>2014</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>2014</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>2014</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>52.8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>2014</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>2014</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>42.6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>2014</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>2014</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>2014</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>44.5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68">
+        <v>2014</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>57.4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69">
+        <v>2014</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70">
+        <v>2014</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>44.9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>2014</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>46.8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72">
+        <v>2014</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>48.4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73">
+        <v>2014</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>61.2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74">
+        <v>2014</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>48.9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75">
+        <v>2014</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>51.4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <v>2014</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>37.9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <v>2014</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>41.5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78">
+        <v>2014</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>6.5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>2017</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>2017</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>6.3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>2017</v>
+      </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <v>2017</v>
+      </c>
+      <c r="F82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>6.9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>2017</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>7.1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84">
+        <v>2017</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>11.2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>2017</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>7.2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>2017</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>7.8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>2017</v>
+      </c>
+      <c r="F87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>6.2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>2017</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>5.8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>2017</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>2017</v>
+      </c>
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>22.9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>2017</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>14.8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92">
+        <v>2017</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>17.3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>2017</v>
+      </c>
+      <c r="F93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>16.7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>2017</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>16.2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95">
+        <v>2017</v>
+      </c>
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>27.9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>2017</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>2017</v>
+      </c>
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>20.3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>2017</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>15.9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>2017</v>
+      </c>
+      <c r="F99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>13.9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>2017</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>29.2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>2017</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>40.5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>2017</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>27.7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>2017</v>
+      </c>
+      <c r="F103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>31.3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>2017</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>30.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>2017</v>
+      </c>
+      <c r="F105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>29.8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>2017</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107">
+        <v>46.2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107">
+        <v>2017</v>
+      </c>
+      <c r="F107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>31.9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>2017</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109">
+        <v>2017</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>27.1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>2017</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>25.4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>2017</v>
+      </c>
+      <c r="F111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>2017</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>48.9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>2017</v>
+      </c>
+      <c r="F113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>2017</v>
+      </c>
+      <c r="F114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>38</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>2017</v>
+      </c>
+      <c r="F115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>38.1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>2017</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>2017</v>
+      </c>
+      <c r="F117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118">
+        <v>53.4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>2017</v>
+      </c>
+      <c r="F118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119">
+        <v>2017</v>
+      </c>
+      <c r="F119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>43.3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>2017</v>
+      </c>
+      <c r="F120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>33.1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>2017</v>
+      </c>
+      <c r="F121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>31.5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>2017</v>
+      </c>
+      <c r="F122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>45</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123">
+        <v>2017</v>
+      </c>
+      <c r="F123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>58.5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124">
+        <v>2017</v>
+      </c>
+      <c r="F124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>43.4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125">
+        <v>2017</v>
+      </c>
+      <c r="F125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>46.5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>2017</v>
+      </c>
+      <c r="F126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127">
+        <v>48.1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127">
+        <v>2017</v>
+      </c>
+      <c r="F127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>48.1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128">
+        <v>2017</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129">
+        <v>60.2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129">
+        <v>2017</v>
+      </c>
+      <c r="F129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>47.5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130">
+        <v>2017</v>
+      </c>
+      <c r="F130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>55</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131">
+        <v>2017</v>
+      </c>
+      <c r="F131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132">
+        <v>2017</v>
+      </c>
+      <c r="F132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133">
+        <v>41.2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133">
+        <v>2017</v>
+      </c>
+      <c r="F133" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/election_2021.xlsx
+++ b/data/election_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/test/ggplot/elections/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A4063-C29A-4A40-BD5D-348934CF548C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A98978-A8E2-4B44-ACB7-14F7A51762BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="960" windowWidth="27820" windowHeight="17040" xr2:uid="{3D2196DF-EA7D-6249-97DA-B6854A445B15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="25">
   <si>
     <t>აჭარა</t>
   </si>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F94576-8E3C-C043-B7C3-547C29EDE846}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I62" sqref="I1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135:C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2727,6 +2727,160 @@
         <v>24</v>
       </c>
     </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>44.4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>48.4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>39.1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>42.1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>42.5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>42.5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140">
+        <v>55.3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>42.4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>45.9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <v>37.9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144">
+        <v>39.6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
